--- a/dishes/北京菜.xlsx
+++ b/dishes/北京菜.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -221,279 +221,264 @@
     <t>198</t>
   </si>
   <si>
-    <t>l7HcaE6avL4f6fnp</t>
-  </si>
-  <si>
-    <t>御品烤鸭(高淳一店)</t>
-  </si>
-  <si>
-    <t>http://qcloud.dpfile.com/pc/owQV4JUI6U0zObojKQ9COJ0pKon8ZL3ATK8GzPx3aDjZ2KqnOjFsy49EWnD8MTEBbKcq9vnEaGy3xLEf-_v_oA.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北漪路8号(益丰大药房旁) </t>
+    <t>k8lSShG3wDih2r8X</t>
+  </si>
+  <si>
+    <t>褚记北京烤鸭(小卫街店)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小卫街20号 </t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 10:30-14:00 16:30-21:00 </t>
+  </si>
+  <si>
+    <t>4291</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>l4UlcuXboziNf0JT</t>
+  </si>
+  <si>
+    <t>兵郡烟酒章村烤鸭(广汇花园店)</t>
+  </si>
+  <si>
+    <t>https://img.meituan.net/poiugc/b51a833483ae959921b8f1a8f287a796790741.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莱茵达路9-3号 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 08:00-12:30 15:00-19:30 </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>暂无</t>
+  </si>
+  <si>
+    <t>G2ECSsooN6I5DGtY</t>
+  </si>
+  <si>
+    <t>龙少爷烤鸭店(杨庄南村店)</t>
+  </si>
+  <si>
+    <t>http://p1.meituan.net/merchant/eef8532a09496d5b66d650bc742fe7a6138312.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小狮王街杨庄南村30幢103（近苏果生活超市） </t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 10:00-13:00 15:30-19:00 </t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>l5J73aijW81LGVBk</t>
+  </si>
+  <si>
+    <t>褚记北京烤鸭(玄锦鸭府龙湖天街店)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 景兰路龙湖南京六合天街4层18号 </t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 11:00-14:00 16:30-21:00 </t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>G3AfHfQnXbduXM1I</t>
+  </si>
+  <si>
+    <t>小荣烤鸭</t>
+  </si>
+  <si>
+    <t>http://p1.meituan.net/poipicadd/2c080c10a51498bf4e653f415af4a51d787897.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 铜岭新村1号 </t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 07:00-12:30 14:30-19:30 </t>
+  </si>
+  <si>
+    <t>GagPqxEqtcl9xHBm</t>
+  </si>
+  <si>
+    <t>亮亮烤鸭店(百子亭店)</t>
+  </si>
+  <si>
+    <t>http://p1.meituan.net/poipicadd/72e7d0cdedbae4380449e5abc13060b3628550.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百子亭24号(玄武门地铁站出入口步行470米) </t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 09:00-19:00 </t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>l9CQsmof9bAjXC93</t>
+  </si>
+  <si>
+    <t>京九門·北京牡丹烤鸭(风情街店)</t>
+  </si>
+  <si>
+    <t>https://img.meituan.net/content/fecf0c11d01ef34d7c8366b53ffd3b41159060.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 王桥路老南门风情街01幢117室 </t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 10:30-13:30 16:30-21:00 </t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>l4YyVEsHeI3meA2K</t>
+  </si>
+  <si>
+    <t>好再来烤鸭店</t>
+  </si>
+  <si>
+    <t>http://p0.meituan.net/poipicadd/d6546e471c14e6c5a5ea494a4d6d913742096.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 珍珠南路51号 </t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 08:00-20:00 </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>H6sFexoP4ZH3yATT</t>
+  </si>
+  <si>
+    <t>陈桥烤鸭(盛庄太平菜场店)</t>
+  </si>
+  <si>
+    <t>http://p0.meituan.net/xianfu/5a5b59b8d07422a3eeb105eb6f760262355306.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 江宁开发区通淮街103号太平农贸市场北门楼梯口 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 08:00-18:30 </t>
+  </si>
+  <si>
+    <t>H1uelFM5TfsgN44j</t>
+  </si>
+  <si>
+    <t>左記北京烤鸭(北漪路店)</t>
+  </si>
+  <si>
+    <t>http://p1.meituan.net/merchant/e19a8881a5a9c99a1b952d87261fc38652135.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北漪路5号10区1004号 </t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周一至周日 10:00-24:00 </t>
+  </si>
+  <si>
+    <t>G7cHghkgijQR40dN</t>
+  </si>
+  <si>
+    <t>星甸晓董烤鸭(中圣北街店)</t>
+  </si>
+  <si>
+    <t>http://p0.meituan.net/xianfu/2b168433c7f343e8d982e818695afa4044441.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中圣街北门小区2号 </t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>H3qLxwB11XkDFRhd</t>
+  </si>
+  <si>
+    <t>杜记烤鸭(草芳社区店)</t>
+  </si>
+  <si>
+    <t>http://p0.meituan.net/poipicadd/fe321df38b72b391d58f1d52bf8e5052828777.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 化工园区草芳新苑26栋 </t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>暂无</t>
-  </si>
-  <si>
-    <t>k8lSShG3wDih2r8X</t>
-  </si>
-  <si>
-    <t>褚记北京烤鸭(小卫街店)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 小卫街20号 </t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 10:30-14:00 16:30-21:00 </t>
-  </si>
-  <si>
-    <t>4291</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>l4UlcuXboziNf0JT</t>
-  </si>
-  <si>
-    <t>兵郡烟酒章村烤鸭(广汇花园店)</t>
-  </si>
-  <si>
-    <t>https://img.meituan.net/poiugc/b51a833483ae959921b8f1a8f287a796790741.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 莱茵达路9-3号 </t>
-  </si>
-  <si>
-    <t>暂无信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 08:00-12:30 15:00-19:30 </t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>G2ECSsooN6I5DGtY</t>
-  </si>
-  <si>
-    <t>龙少爷烤鸭店(杨庄南村店)</t>
-  </si>
-  <si>
-    <t>http://p1.meituan.net/merchant/eef8532a09496d5b66d650bc742fe7a6138312.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 小狮王街杨庄南村30幢103（近苏果生活超市） </t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 10:00-13:00 15:30-19:00 </t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>l5J73aijW81LGVBk</t>
-  </si>
-  <si>
-    <t>褚记北京烤鸭(玄锦鸭府龙湖天街店)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 景兰路龙湖南京六合天街4层18号 </t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 11:00-14:00 16:30-21:00 </t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>G3AfHfQnXbduXM1I</t>
-  </si>
-  <si>
-    <t>小荣烤鸭</t>
-  </si>
-  <si>
-    <t>http://p1.meituan.net/poipicadd/2c080c10a51498bf4e653f415af4a51d787897.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 铜岭新村1号 </t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 07:00-12:30 14:30-19:30 </t>
-  </si>
-  <si>
-    <t>GagPqxEqtcl9xHBm</t>
-  </si>
-  <si>
-    <t>亮亮烤鸭店(百子亭店)</t>
-  </si>
-  <si>
-    <t>http://p1.meituan.net/poipicadd/72e7d0cdedbae4380449e5abc13060b3628550.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 百子亭24号(玄武门地铁站出入口步行470米) </t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 09:00-19:00 </t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>l9CQsmof9bAjXC93</t>
-  </si>
-  <si>
-    <t>京九門·北京牡丹烤鸭(风情街店)</t>
-  </si>
-  <si>
-    <t>https://img.meituan.net/content/fecf0c11d01ef34d7c8366b53ffd3b41159060.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 王桥路老南门风情街01幢117室 </t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 10:30-13:30 16:30-21:00 </t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>l4YyVEsHeI3meA2K</t>
-  </si>
-  <si>
-    <t>好再来烤鸭店</t>
-  </si>
-  <si>
-    <t>http://p0.meituan.net/poipicadd/d6546e471c14e6c5a5ea494a4d6d913742096.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 珍珠南路51号 </t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 08:00-20:00 </t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>H6sFexoP4ZH3yATT</t>
-  </si>
-  <si>
-    <t>陈桥烤鸭(盛庄太平菜场店)</t>
-  </si>
-  <si>
-    <t>http://p0.meituan.net/xianfu/5a5b59b8d07422a3eeb105eb6f760262355306.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 江宁开发区通淮街103号太平农贸市场北门楼梯口 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 08:00-18:30 </t>
-  </si>
-  <si>
-    <t>H1uelFM5TfsgN44j</t>
-  </si>
-  <si>
-    <t>左記北京烤鸭(北漪路店)</t>
-  </si>
-  <si>
-    <t>http://p1.meituan.net/merchant/e19a8881a5a9c99a1b952d87261fc38652135.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 北漪路5号10区1004号 </t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周一至周日 10:00-24:00 </t>
-  </si>
-  <si>
-    <t>G7cHghkgijQR40dN</t>
-  </si>
-  <si>
-    <t>星甸晓董烤鸭(中圣北街店)</t>
-  </si>
-  <si>
-    <t>http://p0.meituan.net/xianfu/2b168433c7f343e8d982e818695afa4044441.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 中圣街北门小区2号 </t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>H3qLxwB11XkDFRhd</t>
-  </si>
-  <si>
-    <t>杜记烤鸭(草芳社区店)</t>
-  </si>
-  <si>
-    <t>http://p0.meituan.net/poipicadd/fe321df38b72b391d58f1d52bf8e5052828777.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 化工园区草芳新苑26栋 </t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -639,18 +624,6 @@
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>k8sDtJ31cKRcFJio</t>
-  </si>
-  <si>
-    <t>周氏烤鸭店</t>
-  </si>
-  <si>
-    <t>https://img.meituan.net/msmerchant/c3b14083cf1fd5f1e27092b8a2579b23127104.jpg%40340w_255h_1e_1c_1l%7Cwatermark%3D0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 青年路5号 </t>
   </si>
   <si>
     <t>H6ztKBHPPj6cvLUU</t>
@@ -1319,10 +1292,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1674,13 +1650,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:N19"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="9" max="10" width="12.8181818181818"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1716,13 +1695,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1760,13 +1739,13 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1804,13 +1783,13 @@
       <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1848,13 +1827,13 @@
       <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1892,13 +1871,13 @@
       <c r="K5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1936,13 +1915,13 @@
       <c r="K6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1980,13 +1959,13 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1998,83 +1977,83 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>4.6</v>
+      </c>
+      <c r="G8">
+        <v>4.5</v>
+      </c>
+      <c r="H8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
+        <v>118.846521742396</v>
+      </c>
+      <c r="J8">
+        <v>32.0389839180445</v>
+      </c>
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="F8">
-        <v>3.5</v>
-      </c>
-      <c r="G8">
-        <v>3.5</v>
-      </c>
-      <c r="H8">
-        <v>3.5</v>
-      </c>
-      <c r="I8">
-        <v>118.87705222467</v>
-      </c>
-      <c r="J8">
-        <v>31.3280520930477</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="L8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>70</v>
+      <c r="N8" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="G9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
-        <v>118.846521742396</v>
+        <v>118.849516504379</v>
       </c>
       <c r="J9">
-        <v>32.0389839180445</v>
+        <v>31.9475728033798</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2095,312 +2074,312 @@
         <v>83</v>
       </c>
       <c r="F10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
-        <v>118.849516504379</v>
+        <v>118.728905531384</v>
       </c>
       <c r="J10">
-        <v>31.9475728033798</v>
+        <v>32.2123081684498</v>
       </c>
       <c r="K10" t="s">
         <v>84</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>70</v>
+      <c r="M10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="I11">
-        <v>118.728905531384</v>
+        <v>118.83852956059</v>
       </c>
       <c r="J11">
-        <v>32.2123081684498</v>
+        <v>32.3305560660105</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="G12">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H12">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="I12">
-        <v>118.83852956059</v>
+        <v>118.872802376877</v>
       </c>
       <c r="J12">
-        <v>32.3305560660105</v>
+        <v>31.6878442260035</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>102</v>
+      <c r="M12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>105</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13">
+        <v>3.6</v>
+      </c>
+      <c r="G13">
+        <v>3.6</v>
+      </c>
+      <c r="H13">
+        <v>3.7</v>
+      </c>
+      <c r="I13">
+        <v>118.780946121622</v>
+      </c>
+      <c r="J13">
+        <v>32.067762992923</v>
+      </c>
+      <c r="K13" t="s">
         <v>107</v>
       </c>
-      <c r="F13">
-        <v>3.9</v>
-      </c>
-      <c r="G13">
-        <v>3.9</v>
-      </c>
-      <c r="H13">
-        <v>3.9</v>
-      </c>
-      <c r="I13">
-        <v>118.872802376877</v>
-      </c>
-      <c r="J13">
-        <v>31.6878442260035</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>70</v>
+      <c r="M13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="G14">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I14">
-        <v>118.780946121622</v>
+        <v>118.837614321992</v>
       </c>
       <c r="J14">
-        <v>32.067762992923</v>
+        <v>32.3347724787616</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="3" t="s">
         <v>116</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F15">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="G15">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="H15">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>118.837614321992</v>
+        <v>119.026063633044</v>
       </c>
       <c r="J15">
-        <v>32.3347724787616</v>
+        <v>31.6486245561541</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>92</v>
+      <c r="L15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F16">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="G16">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I16">
-        <v>119.026063633044</v>
+        <v>118.79740682149</v>
       </c>
       <c r="J16">
-        <v>31.6486245561541</v>
+        <v>31.9398776670851</v>
       </c>
       <c r="K16" t="s">
         <v>130</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>93</v>
+      <c r="L16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
         <v>132</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>134</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" t="s">
-        <v>113</v>
       </c>
       <c r="F17">
         <v>3.5</v>
@@ -2412,22 +2391,22 @@
         <v>3.5</v>
       </c>
       <c r="I17">
-        <v>118.79740682149</v>
+        <v>118.875954310731</v>
       </c>
       <c r="J17">
-        <v>31.9398776670851</v>
+        <v>31.3276683263961</v>
       </c>
       <c r="K17" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>70</v>
+      <c r="L17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2447,86 +2426,86 @@
         <v>141</v>
       </c>
       <c r="F18">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18">
-        <v>118.875954310731</v>
+        <v>118.616619162602</v>
       </c>
       <c r="J18">
-        <v>31.3276683263961</v>
+        <v>32.0611737645264</v>
       </c>
       <c r="K18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>70</v>
+      <c r="M18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G19">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19">
-        <v>118.616619162602</v>
+        <v>118.731058209866</v>
       </c>
       <c r="J19">
-        <v>32.0611737645264</v>
+        <v>32.2211680944484</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="3" t="s">
         <v>149</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
         <v>153</v>
@@ -2538,28 +2517,28 @@
         <v>3.5</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
         <v>3.5</v>
       </c>
       <c r="I20">
-        <v>118.731058209866</v>
+        <v>118.877660730555</v>
       </c>
       <c r="J20">
-        <v>32.2211680944484</v>
+        <v>32.1225873205711</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>94</v>
+      <c r="L20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2570,57 +2549,57 @@
         <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I21">
-        <v>118.877660730555</v>
+        <v>118.864072409454</v>
       </c>
       <c r="J21">
-        <v>32.1225873205711</v>
+        <v>31.333474762558</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F22">
         <v>3.4</v>
@@ -2632,39 +2611,39 @@
         <v>3.4</v>
       </c>
       <c r="I22">
-        <v>118.864072409454</v>
+        <v>118.827842233688</v>
       </c>
       <c r="J22">
-        <v>31.333474762558</v>
+        <v>32.02645864102</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>70</v>
+        <v>161</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F23">
         <v>3.4</v>
@@ -2676,242 +2655,242 @@
         <v>3.4</v>
       </c>
       <c r="I23">
-        <v>118.827842233688</v>
+        <v>118.814912534996</v>
       </c>
       <c r="J23">
-        <v>32.02645864102</v>
+        <v>32.0515370942513</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>94</v>
+        <v>173</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H24">
         <v>3.4</v>
       </c>
       <c r="I24">
-        <v>118.814912534996</v>
+        <v>118.626797003212</v>
       </c>
       <c r="J24">
-        <v>32.0515370942513</v>
+        <v>32.0638077393964</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>94</v>
+        <v>179</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="F25">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G25">
         <v>3.5</v>
       </c>
       <c r="H25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I25">
-        <v>118.626797003212</v>
+        <v>118.619405754081</v>
       </c>
       <c r="J25">
-        <v>32.0638077393964</v>
+        <v>32.0532231653237</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>94</v>
+      <c r="L25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="F26">
         <v>3.6</v>
       </c>
       <c r="G26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
-        <v>118.619405754081</v>
+        <v>118.860768383946</v>
       </c>
       <c r="J26">
-        <v>32.0532231653237</v>
+        <v>31.7762688916193</v>
       </c>
       <c r="K26" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>70</v>
+        <v>149</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
         <v>192</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>193</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>194</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>4.2</v>
+      </c>
+      <c r="G27">
+        <v>4.2</v>
+      </c>
+      <c r="H27">
+        <v>4.1</v>
+      </c>
+      <c r="I27">
+        <v>118.903794364383</v>
+      </c>
+      <c r="J27">
+        <v>32.0819204454944</v>
+      </c>
+      <c r="K27" t="s">
         <v>195</v>
       </c>
-      <c r="E27" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27">
-        <v>3.6</v>
-      </c>
-      <c r="G27">
-        <v>3.6</v>
-      </c>
-      <c r="H27">
-        <v>3.6</v>
-      </c>
-      <c r="I27">
-        <v>118.860768383946</v>
-      </c>
-      <c r="J27">
-        <v>31.7762688916193</v>
-      </c>
-      <c r="K27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>70</v>
+      <c r="L27" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F28">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="G28">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="H28">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I28">
-        <v>118.903794364383</v>
+        <v>118.65964362914</v>
       </c>
       <c r="J28">
-        <v>32.0819204454944</v>
+        <v>31.9065732981976</v>
       </c>
       <c r="K28" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="N28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L28" s="4" t="s">
         <v>203</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2928,122 +2907,34 @@
         <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="F29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G29">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I29">
-        <v>118.644815235072</v>
+        <v>118.739448000512</v>
       </c>
       <c r="J29">
-        <v>31.9239462311848</v>
+        <v>32.062555282772</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B30" t="s">
         <v>209</v>
       </c>
-      <c r="C30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30">
-        <v>3.8</v>
-      </c>
-      <c r="G30">
-        <v>3.7</v>
-      </c>
-      <c r="H30">
-        <v>3.8</v>
-      </c>
-      <c r="I30">
-        <v>118.65964362914</v>
-      </c>
-      <c r="J30">
-        <v>31.9065732981976</v>
-      </c>
-      <c r="K30" t="s">
-        <v>130</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E31" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31">
-        <v>3.6</v>
-      </c>
-      <c r="G31">
-        <v>3.7</v>
-      </c>
-      <c r="H31">
-        <v>3.6</v>
-      </c>
-      <c r="I31">
-        <v>118.739448000512</v>
-      </c>
-      <c r="J31">
-        <v>32.062555282772</v>
-      </c>
-      <c r="K31" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>70</v>
+      <c r="L29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
